--- a/DataMining/thesis/ExperimentalResults.xlsx
+++ b/DataMining/thesis/ExperimentalResults.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Synthetic" sheetId="1" r:id="rId1"/>
+    <sheet name="T10I4D100K" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>1K</t>
   </si>
@@ -152,7 +153,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Synthetic!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -188,7 +189,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Synthetic!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -211,24 +212,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Synthetic!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1647.37</c:v>
+                  <c:v>737.52800000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4671.2629999999999</c:v>
+                  <c:v>1477.8920000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9131.6579999999994</c:v>
+                  <c:v>2312.3919999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15613.996999999999</c:v>
+                  <c:v>3220.4140000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23981.169000000002</c:v>
+                  <c:v>4175.4049999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,7 +241,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Synthetic!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,7 +277,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Synthetic!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -299,24 +300,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Synthetic!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>440.78300000000002</c:v>
+                  <c:v>330.05500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>825.48599999999999</c:v>
+                  <c:v>645.04399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1255.0930000000001</c:v>
+                  <c:v>951.91800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1683.1120000000001</c:v>
+                  <c:v>1284.4559999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2172.11</c:v>
+                  <c:v>1608.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,11 +334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240806400"/>
-        <c:axId val="240806960"/>
+        <c:axId val="149031872"/>
+        <c:axId val="149032432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="240806400"/>
+        <c:axId val="149031872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,7 +351,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -363,7 +364,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1300" cap="none" baseline="0">
+                  <a:rPr lang="en-GB" sz="1100" cap="none" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -396,7 +397,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -446,7 +447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240806960"/>
+        <c:crossAx val="149032432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -454,7 +455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240806960"/>
+        <c:axId val="149032432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,7 +482,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -494,7 +495,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1300" cap="none" baseline="0">
+                  <a:rPr lang="en-GB" sz="1100" cap="none" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -506,7 +507,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -520,7 +520,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -570,11 +570,529 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240806400"/>
+        <c:crossAx val="149031872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2000"/>
-        <c:minorUnit val="800"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>T10I4D100K!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>T10I4D100K!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>T10I4D100K!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>314.714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>595.54600000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>879.10799999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1166.874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1454.011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>T10I4D100K!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCTCSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>T10I4D100K!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>T10I4D100K!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>153.613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>311.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>472.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>637.35400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.48400000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="149035792"/>
+        <c:axId val="149036352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="149035792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of data sequences (|DB|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39574772271113168"/>
+              <c:y val="0.93796389976392613"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149036352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149036352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Computing time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149035792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -600,7 +1118,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -690,7 +1208,568 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1230,6 +2309,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1511,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,22 +2653,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1647.37</v>
+        <v>737.52800000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>440.78300000000002</v>
+        <v>330.05500000000001</v>
       </c>
       <c r="D2">
         <f>C2/60</f>
-        <v>7.3463833333333337</v>
+        <v>5.5009166666666669</v>
       </c>
       <c r="E2">
         <f>B2/60</f>
-        <v>27.456166666666665</v>
+        <v>12.292133333333334</v>
       </c>
       <c r="F2">
         <f>B2/C2</f>
-        <v>3.7373719040888598</v>
+        <v>2.2345609065155809</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,22 +2676,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4671.2629999999999</v>
+        <v>1477.8920000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>825.48599999999999</v>
+        <v>645.04399999999998</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D6" si="0">C3/60</f>
-        <v>13.758100000000001</v>
+        <v>10.750733333333333</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="1">B3/60</f>
-        <v>77.854383333333331</v>
+        <v>24.631533333333334</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F6" si="2">B3/C3</f>
-        <v>5.6588034200458877</v>
+        <v>2.2911491309119998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,22 +2699,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>9131.6579999999994</v>
+        <v>2312.3919999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1255.0930000000001</v>
+        <v>951.91800000000001</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>20.91821666666667</v>
+        <v>15.8653</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>152.1943</v>
+        <v>38.539866666666661</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>7.2756823597932572</v>
+        <v>2.4291924304404371</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,22 +2722,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>15613.996999999999</v>
+        <v>3220.4140000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1683.1120000000001</v>
+        <v>1284.4559999999999</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>28.051866666666669</v>
+        <v>21.407599999999999</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>260.2332833333333</v>
+        <v>53.673566666666673</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>9.2768615516970936</v>
+        <v>2.507220177257921</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,22 +2745,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>23981.169000000002</v>
+        <v>4175.4049999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>2172.11</v>
+        <v>1608.01</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>36.201833333333333</v>
+        <v>26.800166666666666</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>399.68615000000005</v>
+        <v>69.590083333333325</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>11.040494726326015</v>
+        <v>2.5966287523087543</v>
       </c>
     </row>
   </sheetData>
@@ -1652,4 +2768,150 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>314.714</v>
+      </c>
+      <c r="C2" s="1">
+        <v>153.613</v>
+      </c>
+      <c r="D2">
+        <f>C2/60</f>
+        <v>2.5602166666666668</v>
+      </c>
+      <c r="E2">
+        <f>B2/60</f>
+        <v>5.2452333333333332</v>
+      </c>
+      <c r="F2">
+        <f>B2/C2</f>
+        <v>2.0487458743726119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>595.54600000000005</v>
+      </c>
+      <c r="C3" s="1">
+        <v>311.81299999999999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">C3/60</f>
+        <v>5.1968833333333331</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">B3/60</f>
+        <v>9.925766666666668</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="2">B3/C3</f>
+        <v>1.9099460253421123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>879.10799999999995</v>
+      </c>
+      <c r="C4" s="1">
+        <v>472.10300000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7.8683833333333331</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>14.6518</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1.8621105987464599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1166.874</v>
+      </c>
+      <c r="C5" s="1">
+        <v>637.35400000000004</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>10.622566666666668</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>19.447900000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.8308098795959544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1454.011</v>
+      </c>
+      <c r="C6" s="1">
+        <v>800.48400000000004</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>13.3414</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>24.233516666666667</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.816414819034484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DataMining/thesis/ExperimentalResults.xlsx
+++ b/DataMining/thesis/ExperimentalResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Synthetic" sheetId="1" r:id="rId1"/>
@@ -334,11 +334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149031872"/>
-        <c:axId val="149032432"/>
+        <c:axId val="152971264"/>
+        <c:axId val="152983584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149031872"/>
+        <c:axId val="152971264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149032432"/>
+        <c:crossAx val="152983584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -455,526 +455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149032432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Computing time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="149031872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>T10I4D100K!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CTSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>T10I4D100K!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1K</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2K</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3K</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4K</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5K</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>T10I4D100K!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>314.714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>595.54600000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>879.10799999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1166.874</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1454.011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>T10I4D100K!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCTCSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>T10I4D100K!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1K</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2K</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3K</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4K</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5K</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>T10I4D100K!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>153.613</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>311.81299999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>472.10300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>637.35400000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800.48400000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="149035792"/>
-        <c:axId val="149036352"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="149035792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100" cap="none" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Number of data sequences (|DB|)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.39574772271113168"/>
-              <c:y val="0.93796389976392613"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="149036352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="149036352"/>
+        <c:axId val="152983584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +571,528 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149035792"/>
+        <c:crossAx val="152971264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>T10I4D100K!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>T10I4D100K!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>T10I4D100K!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>314.714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>595.54600000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>879.10799999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1166.874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1454.011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>T10I4D100K!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCTCSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>T10I4D100K!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>T10I4D100K!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>153.613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>311.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>472.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>637.35400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.48400000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="83013152"/>
+        <c:axId val="150974160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83013152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of data sequences (|DB|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39574772271113168"/>
+              <c:y val="0.93796389976392613"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150974160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="150974160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Computing time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83013152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2294,14 +2296,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -2329,14 +2331,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -2627,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
